--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>40086</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>39994</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>39903</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>39813</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>39721</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,19 +920,22 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -929,8 +952,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,16 +1043,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1028,48 +1062,54 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
+      <c r="E23" s="3">
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,16 +1425,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1376,48 +1446,54 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>40086</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>39994</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>39903</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>39813</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>39721</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1548,52 +1635,58 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,37 +1714,43 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1664,34 +1763,37 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+      <c r="F46" s="3">
+        <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
@@ -1708,8 +1810,11 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1751,23 +1859,26 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1867,23 +1987,26 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2034,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+      <c r="F54" s="3">
+        <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
@@ -1940,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2096,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -1995,8 +2126,11 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,68 +2138,74 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+      <c r="F60" s="3">
+        <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
@@ -2082,13 +2222,16 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,37 +2254,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2382,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+      <c r="F66" s="3">
+        <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
@@ -2256,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2556,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2396,8 +2570,8 @@
       <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="F72" s="3">
+        <v>-7900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -2414,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2684,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
@@ -2530,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>40086</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>39994</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>39903</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>39813</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>39721</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,26 +2845,29 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2818,28 +3035,31 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,13 +3165,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2952,23 +3182,26 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,13 +3339,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3110,23 +3356,26 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,8 +3417,8 @@
       <c r="E102" s="3">
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
@@ -3181,6 +3433,9 @@
         <v>4</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,194 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>40086</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>39994</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>39903</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>39813</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>39721</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>2700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>3600</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-900</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +865,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +900,17 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +941,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,16 +982,25 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -940,11 +1008,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -955,8 +1023,17 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +1043,93 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,72 +1142,93 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1259,99 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1382,99 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1505,17 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1546,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1587,17 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1628,99 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1751,104 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>40086</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>39994</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>39903</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>39813</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>39721</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1861,11 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,55 +1878,67 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>700</v>
+      </c>
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1679,14 +1948,23 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,13 +1995,22 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
@@ -1731,8 +2018,8 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1743,66 +2030,84 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -1813,8 +2118,17 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1824,20 +2138,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1845,8 +2159,17 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1854,31 +2177,40 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2241,17 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2282,17 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2323,58 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,28 +2405,37 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2069,8 +2446,17 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2469,11 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,28 +2486,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2129,8 +2521,17 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2138,83 +2539,101 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2225,23 +2644,32 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2257,40 +2685,58 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2767,17 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2808,17 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,28 +2849,37 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2417,8 +2890,17 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2913,11 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2948,17 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2989,17 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +3030,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,28 +3071,37 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="E72" s="3">
-        <v>-7900</v>
+        <v>-7500</v>
       </c>
       <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="G72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-7900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -2591,8 +3112,17 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +3153,17 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3194,17 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,28 +3235,37 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -2719,8 +3276,17 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +3317,104 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>40086</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>39994</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>39903</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>39813</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>39721</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3427,11 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,14 +3441,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -2860,14 +3456,23 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3503,17 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3544,17 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3585,17 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3626,17 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3667,58 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3731,11 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3766,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3807,17 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3848,58 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3912,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3947,17 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3988,17 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +4029,17 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,40 +4070,58 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +4152,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3415,19 +4170,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
@@ -3436,6 +4191,15 @@
         <v>4</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40086</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>39994</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>39903</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>39813</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39721</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
-        <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
-        <v>4100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3600</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,20 +1025,20 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,29 +1178,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1175,60 +1209,66 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1308,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,8 +1366,8 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1333,25 +1379,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,29 +1704,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1667,60 +1737,66 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40086</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>39994</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>39903</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>39813</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39721</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,19 +1967,20 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1904,8 +1991,8 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -1916,14 +2003,17 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1933,15 +2023,15 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1957,14 +2047,17 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2018,11 +2114,11 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2039,37 +2135,40 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2080,37 +2179,40 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,8 +2243,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2153,8 +2258,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2177,11 +2285,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2299,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2203,14 +2311,17 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,22 +2449,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2355,8 +2475,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2367,14 +2487,17 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,31 +2537,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,20 +2631,20 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2565,37 +2699,40 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2606,37 +2743,40 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2653,26 +2793,29 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2694,19 +2837,22 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2720,8 +2866,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2729,14 +2875,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,31 +3013,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3251,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3089,10 +3263,10 @@
         <v>-6700</v>
       </c>
       <c r="E72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7900</v>
       </c>
       <c r="G72" s="3">
         <v>-7900</v>
@@ -3103,8 +3277,8 @@
       <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-7900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,31 +3427,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40086</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>39994</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>39903</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>39813</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39721</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3450,8 +3649,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3465,14 +3664,17 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,31 +3890,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>1100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+      <c r="J89" s="3">
+        <v>-100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3711,14 +3928,17 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,31 +4084,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>400</v>
+        <v>-2700</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3892,14 +4122,17 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,31 +4322,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4114,14 +4360,17 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,19 +4410,22 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4184,8 +4436,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -4200,6 +4452,9 @@
         <v>4</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40086</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>39994</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>39903</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39813</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39721</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>-1100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,20 +1050,20 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,32 +1211,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1212,63 +1245,69 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,8 +1414,8 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1382,25 +1427,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,32 +1773,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1740,63 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40086</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>39994</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>39903</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39813</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39721</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,22 +2053,23 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1994,8 +2080,8 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2006,14 +2092,17 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2026,15 +2115,15 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2050,14 +2139,17 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,11 +2212,11 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2138,40 +2233,43 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2182,40 +2280,43 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
-        <v>800</v>
-      </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
@@ -2232,13 +2333,16 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2246,8 +2350,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2261,8 +2365,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2276,25 +2380,28 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2302,8 +2409,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2314,14 +2421,17 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,25 +2568,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2478,8 +2597,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2490,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,34 +2662,37 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,20 +2764,20 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2664,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2679,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2702,14 +2835,17 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2717,25 +2853,25 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2746,14 +2882,17 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2761,25 +2900,25 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
@@ -2796,29 +2935,32 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,11 +2996,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2869,8 +3014,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2878,14 +3023,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,34 +3170,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,22 +3424,25 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6700</v>
+        <v>-5400</v>
       </c>
       <c r="E72" s="3">
         <v>-6700</v>
       </c>
       <c r="F72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7900</v>
       </c>
       <c r="H72" s="3">
         <v>-7900</v>
@@ -3280,8 +3453,8 @@
       <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>-7900</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,34 +3612,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40086</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>39994</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>39903</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39813</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39721</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3652,8 +3850,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3667,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,34 +4106,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>-100</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
@@ -3931,14 +4147,17 @@
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,31 +4174,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,34 +4313,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -4125,14 +4354,17 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,34 +4567,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4363,14 +4608,17 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,22 +4661,25 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4439,8 +4690,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
@@ -4455,6 +4706,9 @@
         <v>4</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40086</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>39994</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39903</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39813</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39721</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,69 +752,75 @@
         <v>2100</v>
       </c>
       <c r="E8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>4600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3400</v>
       </c>
       <c r="O8" s="3">
         <v>2700</v>
       </c>
       <c r="P8" s="3">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="Q8" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F9" s="3">
         <v>-100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -814,70 +828,82 @@
       <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>-1100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1099,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1062,14 +1108,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3200</v>
       </c>
       <c r="Q17" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>900</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>900</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,93 +1278,101 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>1000</v>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1433,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,11 +1509,11 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1430,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1442,13 +1534,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>900</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>900</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>900</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>900</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40086</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>39994</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39903</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39813</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39721</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,40 +2226,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2095,14 +2269,20 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2118,18 +2298,18 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2142,14 +2322,20 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2215,14 +2407,14 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2236,14 +2428,20 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,31 +2449,31 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2283,46 +2481,52 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
@@ -2336,28 +2540,34 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F47" s="3">
         <v>6400</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2368,11 +2578,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2383,8 +2593,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,31 +2608,31 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2424,14 +2640,20 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,40 +2805,46 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2612,14 +2852,20 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,40 +2911,46 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2770,20 +3032,20 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2797,16 +3059,22 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2815,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2826,11 +3094,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2838,14 +3106,20 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2876,8 +3150,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -2885,14 +3159,20 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2920,11 +3200,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -2938,35 +3218,41 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,14 +3291,14 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3017,23 +3309,29 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,40 +3483,46 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,28 +3769,34 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7900</v>
       </c>
       <c r="J72" s="3">
         <v>-7900</v>
@@ -3456,11 +3804,11 @@
       <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="L72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-7900</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,40 +3981,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F76" s="3">
         <v>2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40086</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>39994</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39903</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39813</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39721</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>900</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4251,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3868,14 +4266,20 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,19 +4615,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4201,11 +4643,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,31 +4785,31 @@
         <v>400</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -4357,14 +4817,20 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,40 +5056,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -4611,14 +5103,20 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,40 +5162,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
@@ -4709,6 +5213,12 @@
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40086</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39994</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39903</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39813</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39721</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>-1100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>3400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,20 +1128,20 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,29 +1326,29 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1322,72 +1356,78 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1515,8 +1561,8 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1528,25 +1574,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1928,29 +1998,29 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1958,72 +2028,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40086</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39994</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39903</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39813</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39721</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,19 +2327,19 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2263,8 +2350,8 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2275,14 +2362,17 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2304,15 +2394,15 @@
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2328,14 +2418,17 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,37 +2480,40 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2434,19 +2530,22 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2455,28 +2554,28 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2487,49 +2586,52 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
       </c>
       <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
@@ -2546,31 +2648,34 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E47" s="3">
         <v>9200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6400</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2584,8 +2689,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2614,19 +2722,19 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2634,8 +2742,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2646,14 +2754,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,34 +2928,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2846,8 +2966,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2858,14 +2978,17 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,43 +3040,46 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>9800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3038,17 +3169,17 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -3065,19 +3196,22 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3089,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3112,14 +3246,17 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3136,25 +3273,25 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3165,14 +3302,17 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3189,25 +3329,25 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -3224,38 +3364,41 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3297,11 +3443,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3315,8 +3461,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3324,14 +3470,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,43 +3644,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,31 +3946,34 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6700</v>
       </c>
       <c r="H72" s="3">
         <v>-6700</v>
       </c>
       <c r="I72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-7900</v>
       </c>
       <c r="K72" s="3">
         <v>-7900</v>
@@ -3810,8 +3984,8 @@
       <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>-7900</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,43 +4170,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40086</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39994</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39903</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39813</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39721</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,8 +4456,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4272,14 +4471,17 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,43 +4757,46 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
+      <c r="N89" s="3">
+        <v>-100</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
@@ -4590,14 +4807,17 @@
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,11 +4849,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4649,8 +4870,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,43 +5003,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4823,14 +5053,17 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,43 +5305,46 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -5109,14 +5355,17 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5417,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5203,8 +5455,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
@@ -5219,6 +5471,9 @@
         <v>4</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,191 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>40086</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39994</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>39903</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>39813</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>39721</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7800</v>
       </c>
       <c r="G8" s="3">
         <v>2100</v>
       </c>
       <c r="H8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3400</v>
       </c>
       <c r="R8" s="3">
         <v>2700</v>
       </c>
       <c r="S8" s="3">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="T8" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>-100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -844,79 +857,91 @@
       <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>-1100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1176,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1140,14 +1185,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3200</v>
       </c>
       <c r="T17" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>900</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>900</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,13 +1379,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1329,96 +1396,102 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>1000</v>
@@ -1426,8 +1499,14 @@
       <c r="T21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,93 +1561,105 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1577,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1589,13 +1680,19 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>900</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>900</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>900</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,13 +2119,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2001,105 +2140,117 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>900</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>900</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>40086</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39994</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>39903</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>39813</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>39721</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,13 +2486,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2330,34 +2503,34 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2365,50 +2538,56 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,14 +2600,20 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2509,8 +2700,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2518,8 +2709,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2533,55 +2724,61 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2589,55 +2786,61 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
@@ -2651,37 +2854,43 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F47" s="3">
         <v>10400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6400</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2692,11 +2901,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2707,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2725,31 +2940,31 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2757,14 +2972,20 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,49 +3164,55 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2981,14 +3220,20 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,49 +3288,55 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
@@ -3099,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,16 +3402,18 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3172,20 +3433,20 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3199,8 +3460,14 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3216,8 +3483,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3226,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3237,11 +3504,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3249,14 +3516,20 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3276,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3296,8 +3569,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3305,14 +3578,20 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3332,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -3349,11 +3628,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3367,44 +3646,50 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>6500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3423,28 +3708,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3452,8 +3743,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3464,23 +3755,29 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,49 +3956,55 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>0</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
@@ -3703,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,37 +4290,43 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7900</v>
       </c>
       <c r="M72" s="3">
         <v>-7900</v>
@@ -3987,11 +4334,11 @@
       <c r="N72" s="3">
         <v>-7900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-7900</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
@@ -4005,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,49 +4538,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
@@ -4229,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>40086</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39994</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>39903</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>39813</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>39721</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>900</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4459,11 +4856,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4474,14 +4871,20 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>1000</v>
       </c>
       <c r="F89" s="3">
+        <v>700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,31 +5277,33 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4873,11 +5314,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4894,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,49 +5459,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>400</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -5056,14 +5515,20 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,49 +5793,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F100" s="3">
         <v>3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -5358,14 +5849,20 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5429,40 +5932,40 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
@@ -5474,6 +5977,12 @@
         <v>4</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40086</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39994</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39903</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>39813</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39721</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
-        <v>1100</v>
-      </c>
       <c r="H10" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>-1100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>3400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,20 +1205,20 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
-        <v>1100</v>
-      </c>
       <c r="H17" s="3">
-        <v>7200</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>500</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1414,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1402,29 +1436,29 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1432,81 +1466,87 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>500</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>500</v>
       </c>
       <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1655,14 +1701,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1674,25 +1720,28 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,13 +2192,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2146,29 +2216,29 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2176,81 +2246,87 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40086</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39994</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39903</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>39813</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39721</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2509,19 +2596,19 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2532,8 +2619,8 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
@@ -2544,14 +2631,17 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2562,10 +2652,10 @@
         <v>100</v>
       </c>
       <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>400</v>
       </c>
       <c r="H42" s="3">
         <v>400</v>
@@ -2574,23 +2664,23 @@
         <v>400</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,14 +2696,17 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2706,14 +2802,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2730,14 +2826,17 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2753,35 +2852,35 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2792,14 +2891,17 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,43 +2909,43 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
@@ -2860,40 +2962,43 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6400</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2907,8 +3012,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2946,19 +3054,19 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2966,8 +3074,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2978,14 +3086,17 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3184,29 +3304,29 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3214,8 +3334,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3226,14 +3346,17 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,52 +3417,55 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,19 +3534,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3439,17 +3570,17 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3466,28 +3597,31 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3499,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3522,14 +3656,17 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3555,25 +3692,25 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3584,14 +3721,17 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3617,25 +3757,25 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,38 +3804,38 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3740,14 +3886,14 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3761,8 +3907,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3770,14 +3916,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4117,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3971,43 +4129,43 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,40 +4467,43 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6700</v>
       </c>
       <c r="K72" s="3">
         <v>-6700</v>
       </c>
       <c r="L72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7900</v>
       </c>
       <c r="N72" s="3">
         <v>-7900</v>
@@ -4340,8 +4514,8 @@
       <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>-7900</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,52 +4727,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40086</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39994</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39903</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>39813</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39721</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,11 +5029,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4862,8 +5061,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4877,14 +5076,17 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,52 +5407,55 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
+      <c r="Q89" s="3">
+        <v>-100</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
@@ -5249,14 +5466,17 @@
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5305,8 +5526,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5320,8 +5541,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,52 +5692,55 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -5521,14 +5751,17 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,52 +6042,55 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -5855,14 +6101,17 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5932,31 +6184,31 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5967,8 +6219,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>4</v>
@@ -5983,6 +6235,9 @@
         <v>4</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KDCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>KDCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40086</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39994</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>39903</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39813</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39721</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>3400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,20 +1231,20 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1448,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1439,29 +1473,29 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1469,84 +1503,90 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1650,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1704,14 +1750,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1723,25 +1769,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2262,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2219,29 +2289,29 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2249,84 +2319,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40086</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39994</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>39903</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39813</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39721</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2661,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2587,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2599,19 +2686,19 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2622,8 +2709,8 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2634,19 +2721,22 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -2655,10 +2745,10 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>400</v>
       </c>
       <c r="I42" s="3">
         <v>400</v>
@@ -2667,23 +2757,23 @@
         <v>400</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2699,14 +2789,17 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2863,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2805,14 +2901,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2829,14 +2925,17 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2855,35 +2954,35 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2894,61 +2993,64 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
@@ -2965,43 +3067,46 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6400</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -3015,8 +3120,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3030,8 +3135,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3057,19 +3165,19 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3077,8 +3185,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3089,14 +3197,17 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3307,29 +3427,29 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3337,8 +3457,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3349,14 +3469,17 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,55 +3543,58 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
@@ -3485,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,13 +3665,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
@@ -3549,8 +3680,8 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3573,17 +3704,17 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3600,8 +3731,11 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,14 +3748,14 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3636,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3659,14 +3793,17 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3695,25 +3832,25 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3724,14 +3861,17 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3760,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
@@ -3795,50 +3935,53 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3889,14 +4035,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3910,8 +4056,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3919,14 +4065,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,55 +4275,58 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
@@ -4185,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,43 +4641,46 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-6700</v>
       </c>
       <c r="L72" s="3">
         <v>-6700</v>
       </c>
       <c r="M72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-7900</v>
       </c>
       <c r="O72" s="3">
         <v>-7900</v>
@@ -4517,8 +4691,8 @@
       <c r="Q72" s="3">
         <v>-7900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>-7900</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +4913,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4739,46 +4925,46 @@
         <v>3700</v>
       </c>
       <c r="E76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
@@ -4795,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40086</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39994</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>39903</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39813</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39721</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5032,11 +5231,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -5064,8 +5263,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5079,14 +5278,17 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,55 +5624,58 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
+      <c r="R89" s="3">
+        <v>-100</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
@@ -5469,14 +5686,17 @@
       <c r="U89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5529,8 +5750,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5544,8 +5765,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,55 +5922,58 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -5754,14 +5984,17 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,55 +6288,58 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
@@ -6104,14 +6350,17 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6424,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6187,31 +6439,31 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6222,8 +6474,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>4</v>
@@ -6238,6 +6490,9 @@
         <v>4</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
